--- a/data-raw/payne.wheat.xlsx
+++ b/data-raw/payne.wheat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF26078-45AD-49CF-B98A-346B6B60689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="17100" windowHeight="8580"/>
+    <workbookView xWindow="3660" yWindow="2620" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,19 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,14 +236,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -281,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -353,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -563,47 +566,47 @@
       <c r="I1" s="2">
         <v>1987</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>1988</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>1989</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>1990</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>1991</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>1992</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>1993</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>1994</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>1995</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>1996</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>1997</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>1998</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>1999</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -671,8 +674,8 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1">
@@ -739,8 +742,8 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1">
@@ -807,8 +810,8 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1">
@@ -875,7 +878,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -943,8 +946,8 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1">
@@ -1011,8 +1014,8 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1">
@@ -1079,8 +1082,8 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1">
@@ -1147,7 +1150,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1215,8 +1218,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1">
@@ -1283,8 +1286,8 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1">
@@ -1351,8 +1354,8 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="1">
@@ -1419,7 +1422,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1487,8 +1490,8 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1">
@@ -1555,8 +1558,8 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
@@ -1623,8 +1626,8 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1">
@@ -1691,7 +1694,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,8 +1762,8 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1">
@@ -1827,8 +1830,8 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
@@ -1895,8 +1898,8 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1">
@@ -1963,7 +1966,7 @@
         <v>10.33</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2034,8 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
@@ -2099,8 +2102,8 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1">
@@ -2167,8 +2170,8 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:22">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1">
@@ -2235,8 +2238,8 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:22">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,1709 +2248,1709 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" ht="29">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:22" ht="17.25" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>3.84</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>4.47</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>4.1100000000000003</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>3.66</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>2.39</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>4.17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>2.98</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>1.47</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>4.4800000000000004</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>6.31</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <v>3.11</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <v>0.93</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <v>1.3</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <v>1.19</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="1">
         <v>1.58</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="1">
         <v>3.21</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="1">
         <v>1.45</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1">
         <v>70</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>6.59</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>6.38</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>6.28</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>6.56</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>5.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>6.91</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>6.18</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>6.28</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>3.94</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>8.56</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>7.84</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="1">
         <v>5.92</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="1">
         <v>3.94</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="1">
         <v>4.21</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="1">
         <v>7.24</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="1">
         <v>5.73</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="1">
         <v>6.7</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="1">
         <v>1.97</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="1">
         <v>4.54</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:22">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
         <v>140</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>7.49</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>7.82</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>7.74</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>7.76</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>7.21</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>6.75</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>6.77</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>4.58</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>5.83</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>9.94</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>7.21</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="1">
         <v>5.89</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="1">
         <v>4.04</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="1">
         <v>7.8</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="1">
         <v>7.37</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="1">
         <v>9.35</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="1">
         <v>3.44</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="1">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:22">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
         <v>210</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>7.39</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>8.1300000000000008</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>8.17</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>9.41</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>7.84</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>6.2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>4.74</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>6.33</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>10.23</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>6.81</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>6.63</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <v>3.51</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="1">
         <v>8.43</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="1">
         <v>7.88</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="1">
         <v>10.26</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="1">
         <v>5.53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>3.06</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>4.3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>3.76</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>4.28</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>4.08</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>3.02</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>3.09</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>2.8</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>1.38</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>3.46</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>3.82</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <v>2.86</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="1">
         <v>1.8</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="1">
         <v>1.27</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="1">
         <v>0.65</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="1">
         <v>2.4</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="1">
         <v>2.52</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="1">
         <v>0.52</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="1">
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:22">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
         <v>70</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>6.32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>6.82</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>6.79</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>8.94</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>5.46</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>5.08</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>5.56</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>6.6</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>4.92</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>5.72</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>8</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>5.79</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>5.32</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <v>3.82</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <v>6.6</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>6.52</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <v>6.35</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="1">
         <v>6.55</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="1">
         <v>4.87</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:22">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1">
         <v>140</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>7.61</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>8.16</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>8.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>7.72</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>6.32</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>6.6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>6.63</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>5.17</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>6.3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>9.75</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="1">
         <v>6.72</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="1">
         <v>8.08</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="1">
         <v>7.69</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="1">
         <v>9.25</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="1">
         <v>7.53</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="1">
         <v>6.28</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:22">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1">
         <v>210</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>7.78</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>8.52</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>9.43</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>9.35</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>7.88</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>6.43</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>6.61</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>5.82</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>5.18</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <v>10.57</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="1">
         <v>7.59</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="1">
         <v>7.37</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="1">
         <v>4.96</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="1">
         <v>7.79</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="1">
         <v>9.24</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="1">
         <v>9.7200000000000006</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="1">
         <v>8.48</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="1">
         <v>7.39</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>5.82</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>5.37</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>3.86</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>4.92</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>4.24</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>3.36</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>4.41</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>4.01</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>4.04</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>1.73</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>6.75</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="1">
         <v>2.73</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="1">
         <v>3.13</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="1">
         <v>4.76</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="1">
         <v>2.17</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="1">
         <v>3.82</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="1">
         <v>1.74</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="1">
         <v>3.77</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="1">
         <v>1.69</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="1">
         <v>3.4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:22">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
         <v>70</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>7.52</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>7.91</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>7.05</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>7.66</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>7.26</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>5.65</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>6.55</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>6.77</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>5.94</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <v>8.85</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="1">
         <v>6.47</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="1">
         <v>5.4</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="1">
         <v>6.16</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="1">
         <v>5.01</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="1">
         <v>7.19</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="1">
         <v>3.83</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="1">
         <v>7.13</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="1">
         <v>6.58</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="1">
         <v>7.06</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4">
+    <row r="13" spans="1:22">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1">
         <v>140</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>7.53</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>8.06</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>9.75</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>8.26</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>6.62</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>7.59</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>7.12</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>6.1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>5.43</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>9.9600000000000009</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="1">
         <v>7.49</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <v>6.6</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="1">
         <v>7.35</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="1">
         <v>5.39</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="1">
         <v>7.15</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="1">
         <v>5.15</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="1">
         <v>8.67</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="1">
         <v>7.58</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="1">
         <v>8.64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:22">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1">
         <v>210</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>7.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>8.4600000000000009</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>10.35</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>9.69</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>6.05</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>7.13</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>6.14</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>6.04</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>6.17</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>10.41</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="1">
         <v>7.26</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <v>6.52</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="1">
         <v>7.14</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="1">
         <v>5.79</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="1">
         <v>8.41</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="1">
         <v>5.0199999999999996</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="1">
         <v>9.6199999999999992</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="1">
         <v>7.83</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="1">
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>4.71</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>5.55</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>4.45</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>5.46</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>4.07</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="1">
         <v>4.68</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1">
         <v>4.8</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
         <v>4.34</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>3.77</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <v>2.62</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <v>5.94</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="1">
         <v>3.42</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="1">
         <v>3.64</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="1">
         <v>2.52</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="1">
         <v>6.37</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="1">
         <v>4.97</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="1">
         <v>3.42</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="1">
         <v>3.42</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1">
         <v>70</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>6.52</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>7.23</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>8.68</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>6.98</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="1">
         <v>6.55</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="1">
         <v>6.74</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <v>6.73</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>5.58</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <v>5.79</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="1">
         <v>8.83</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="1">
         <v>7.17</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="1">
         <v>5.16</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="1">
         <v>5.14</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="1">
         <v>5.71</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="1">
         <v>8.23</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="1">
         <v>6.2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="1">
         <v>7.77</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="1">
         <v>6.59</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="1">
         <v>6.58</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4">
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1">
         <v>140</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>8.27</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>7.48</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>8.39</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="1">
         <v>7.2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1">
         <v>7.86</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <v>7.46</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>5.56</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
         <v>5.08</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="1">
         <v>9.64</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="1">
         <v>7.54</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="1">
         <v>6.47</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="1">
         <v>7</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="1">
         <v>5.36</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="1">
         <v>8.77</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="1">
         <v>6.93</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="1">
         <v>9.2100000000000009</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="1">
         <v>8.26</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="1">
         <v>7.22</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4">
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
         <v>210</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>7.83</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>7.31</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>6.93</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>10.33</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>6.84</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>7</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
         <v>7.23</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>4.91</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <v>5.25</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="1">
         <v>9.75</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="1">
         <v>6.67</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="1">
         <v>6.55</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="1">
         <v>7.16</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="1">
         <v>6.53</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="1">
         <v>8.4600000000000009</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="1">
         <v>7.25</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="1">
         <v>9.24</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="1">
         <v>6.51</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="1">
         <v>7.49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>5.35</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>5.16</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>6.36</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>7.18</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>4.97</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="1">
         <v>6.14</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="1">
         <v>5.51</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="1">
         <v>5.68</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <v>5.45</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1">
         <v>3.59</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1">
         <v>6.47</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="1">
         <v>6.33</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="1">
         <v>5.58</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="1">
         <v>2.57</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="1">
         <v>5.23</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="1">
         <v>4.78</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="1">
         <v>4.42</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="1">
         <v>5.05</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4">
+    <row r="20" spans="1:22">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1">
         <v>70</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>6.7</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>7.81</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>9.67</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>11.06</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>7.64</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>7.15</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="1">
         <v>7.24</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
         <v>7.39</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>6.28</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
         <v>6.06</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="1">
         <v>9.3699999999999992</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="1">
         <v>7.48</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="1">
         <v>7.01</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="1">
         <v>6</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="1">
         <v>5.7</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="1">
         <v>7.76</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="1">
         <v>7.7</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="1">
         <v>7.48</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="1">
         <v>7.27</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="1">
         <v>8.24</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:22">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1">
         <v>140</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>7.69</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>9.34</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>10.52</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>9.57</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>6.89</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="1">
         <v>7.74</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
         <v>7.54</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>6.12</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
         <v>7.2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <v>10.46</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="1">
         <v>6.13</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="1">
         <v>7.69</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="1">
         <v>6.28</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="1">
         <v>6.46</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="1">
         <v>8.19</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="1">
         <v>8.01</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="1">
         <v>8.5</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="1">
         <v>8.65</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="1">
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4">
+    <row r="22" spans="1:22">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1">
         <v>210</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>7.53</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>7.4</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>8.4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>9.8800000000000008</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>8.84</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>6.2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>7.61</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <v>7.51</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>5.81</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <v>6.42</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <v>10.48</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="1">
         <v>4.79</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="1">
         <v>7.91</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="1">
         <v>7.5</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="1">
         <v>5.78</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="1">
         <v>8.67</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="1">
         <v>8.75</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="1">
         <v>10.33</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>0</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>6.47</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>6.56</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>7.39</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>7.51</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="1">
         <v>6.09</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="1">
         <v>5.26</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="1">
         <v>5.26</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>4.91</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
         <v>3.31</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <v>6.08</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="1">
         <v>7.11</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="1">
         <v>6.08</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="1">
         <v>3.46</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="1">
         <v>3.52</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="1">
         <v>5.73</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="1">
         <v>4.1100000000000003</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="1">
         <v>1.79</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4">
+    <row r="24" spans="1:22">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
         <v>70</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>7.84</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>8.36</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>9.64</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>9.66</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>8.08</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="1">
         <v>7.31</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="1">
         <v>7.48</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="1">
         <v>7.87</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <v>6.69</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <v>6.51</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="1">
         <v>8.81</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="1">
         <v>6.65</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="1">
         <v>7.03</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="1">
         <v>6.48</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="1">
         <v>6.6</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="1">
         <v>7.97</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="1">
         <v>6.78</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="1">
         <v>7.55</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="1">
         <v>7.47</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4">
+    <row r="25" spans="1:22">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1">
         <v>140</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>7.98</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>8.6</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>11.04</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>8.76</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="1">
         <v>6.85</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="1">
         <v>8.31</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="1">
         <v>6.94</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="1">
         <v>6.39</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1">
         <v>6.65</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="1">
         <v>9.6300000000000008</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="1">
         <v>6.45</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="1">
         <v>7.2</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="1">
         <v>6.07</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="1">
         <v>6.36</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="1">
         <v>8.48</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="1">
         <v>7.36</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="1">
         <v>9.01</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="1">
         <v>5.54</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="1">
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4">
+    <row r="26" spans="1:22">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
         <v>210</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>7.68</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>8.41</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>8.66</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>9.36</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>10.19</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="1">
         <v>6.75</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="1">
         <v>8.1300000000000008</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
         <v>7.06</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <v>6.99</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <v>10.1</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="1">
         <v>6.14</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="1">
         <v>7.69</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="1">
         <v>7.53</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="1">
         <v>6.14</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="1">
         <v>8.2799999999999994</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="1">
         <v>7.43</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="1">
         <v>8.98</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="1">
         <v>4.95</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="1">
         <v>9.65</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:22">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
     </row>
